--- a/data/TableS2_LA_yeast_growth.xlsx
+++ b/data/TableS2_LA_yeast_growth.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="drozdovapb"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView activeTab="2" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="1" r:id="rId4"/>
@@ -15,10 +15,10 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1695966024" val="1050" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1695966024" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1695966024" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1695966024"/>
+      <pm:revision xmlns:pm="smNativeData" day="1697278343" val="1042" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1697278343" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1697278343" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1697278343"/>
     </ext>
   </extLst>
 </workbook>
@@ -46,7 +46,7 @@
         <i/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695966024">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697278343">
               <pm:latin face="Times New Roman" sz="240" weight="normal" i="1"/>
               <pm:cs/>
               <pm:ea/>
@@ -66,7 +66,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695966024">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697278343">
               <pm:latin face="Times New Roman" sz="240" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -92,7 +92,7 @@
         <vertAlign val="superscript"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695966024" ssSize="66" ssDistance="25">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697278343" ssSize="66" ssDistance="25">
               <pm:latin face="Times New Roman" sz="240" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -113,7 +113,7 @@
         <vertAlign val="superscript"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695966024" ssSize="0" ssDistance="0">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697278343" ssSize="0" ssDistance="0">
               <pm:latin face="Times New Roman" sz="240" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -134,7 +134,7 @@
         <vertAlign val="superscript"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695966024" ssSize="66" ssDistance="25">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697278343" ssSize="66" ssDistance="25">
               <pm:latin face="Times New Roman" sz="240" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -155,7 +155,7 @@
         <vertAlign val="superscript"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695966024" ssSize="0" ssDistance="0">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697278343" ssSize="0" ssDistance="0">
               <pm:latin face="Times New Roman" sz="240" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -176,7 +176,7 @@
         <vertAlign val="superscript"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695966024" ssSize="66" ssDistance="25">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697278343" ssSize="66" ssDistance="25">
               <pm:latin face="Times New Roman" sz="240" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -197,7 +197,7 @@
         <vertAlign val="superscript"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695966024" ssSize="0" ssDistance="0">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697278343" ssSize="0" ssDistance="0">
               <pm:latin face="Times New Roman" sz="240" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -218,7 +218,7 @@
         <vertAlign val="superscript"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695966024" ssSize="66" ssDistance="25">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697278343" ssSize="66" ssDistance="25">
               <pm:latin face="Times New Roman" sz="240" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -239,7 +239,7 @@
         <vertAlign val="superscript"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695966024" ssSize="0" ssDistance="0">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697278343" ssSize="0" ssDistance="0">
               <pm:latin face="Times New Roman" sz="240" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -260,7 +260,7 @@
         <vertAlign val="superscript"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695966024" ssSize="66" ssDistance="25">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697278343" ssSize="66" ssDistance="25">
               <pm:latin face="Times New Roman" sz="240" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -281,7 +281,7 @@
         <vertAlign val="superscript"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695966024" ssSize="0" ssDistance="0">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697278343" ssSize="0" ssDistance="0">
               <pm:latin face="Times New Roman" sz="240" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -302,7 +302,7 @@
         <vertAlign val="superscript"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695966024" ssSize="66" ssDistance="25">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697278343" ssSize="66" ssDistance="25">
               <pm:latin face="Times New Roman" sz="240" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -323,7 +323,7 @@
         <vertAlign val="superscript"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695966024" ssSize="0" ssDistance="0">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697278343" ssSize="0" ssDistance="0">
               <pm:latin face="Times New Roman" sz="240" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -344,7 +344,7 @@
         <vertAlign val="superscript"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695966024" ssSize="66" ssDistance="25">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697278343" ssSize="66" ssDistance="25">
               <pm:latin face="Times New Roman" sz="240" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -370,7 +370,7 @@
         <vertAlign val="superscript"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695966024" ssSize="0" ssDistance="0">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697278343" ssSize="0" ssDistance="0">
               <pm:latin face="Times New Roman" sz="240" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -396,7 +396,7 @@
         <vertAlign val="superscript"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695966024" ssSize="0" ssDistance="0">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697278343" ssSize="0" ssDistance="0">
               <pm:latin face="Times New Roman" sz="240" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -427,7 +427,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695966024">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697278343">
               <pm:latin face="Times New Roman" sz="240" weight="bold" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -447,7 +447,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695966024">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697278343">
               <pm:latin face="Times New Roman" sz="240" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -467,7 +467,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695966024" kern="0">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697278343" kern="0">
               <pm:latin face="Times New Roman" sz="240" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -487,7 +487,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1695966024" kern="1">
+            <pm:charSpec xmlns:pm="smNativeData" id="1697278343" kern="1">
               <pm:latin face="Times New Roman" sz="240" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -499,10 +499,10 @@
     </r>
   </si>
   <si>
-    <t>sample_id</t>
-  </si>
-  <si>
-    <t>condition</t>
+    <t>Sample_id</t>
+  </si>
+  <si>
+    <t>Condition</t>
   </si>
   <si>
     <t>OD600_init</t>
@@ -520,7 +520,7 @@
     <t>20220720_2</t>
   </si>
   <si>
-    <t>control</t>
+    <t>Control</t>
   </si>
   <si>
     <t>DLA0005</t>
@@ -614,7 +614,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695966024" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1697278343" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -629,7 +629,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695966024" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1697278343" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -645,7 +645,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695966024" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1697278343" ulstyle="none" kern="1">
             <pm:latin face="Times New Roman" sz="240" lang="default" i="1"/>
             <pm:cs face="Basic Roman" sz="240" lang="default" i="1"/>
             <pm:ea face="Basic Roman" sz="240" lang="default" i="1"/>
@@ -660,7 +660,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695966024" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1697278343" ulstyle="none" kern="1">
             <pm:latin face="Times New Roman" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="280" lang="default"/>
             <pm:ea face="Basic Roman" sz="280" lang="default"/>
@@ -675,7 +675,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695966024" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1697278343" ulstyle="none" kern="1">
             <pm:latin face="Times New Roman" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -691,7 +691,7 @@
       <vertAlign val="superscript"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695966024" ulstyle="none" kern="1" ssSize="66" ssDistance="25">
+          <pm:charSpec xmlns:pm="smNativeData" id="1697278343" ulstyle="none" kern="1" ssSize="66" ssDistance="25">
             <pm:latin face="Times New Roman" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -707,7 +707,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695966024" style="Hyperlink" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1697278343" style="Hyperlink" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Times New Roman" sz="200" lang="default"/>
             <pm:cs face="Basic Sans" sz="200" lang="default"/>
             <pm:ea face="Basic Sans" sz="200" lang="default"/>
@@ -722,7 +722,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695966024" style="Hyperlink" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1697278343" style="Hyperlink" ulstyle="none" kern="1">
             <pm:latin face="Times New Roman" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -737,7 +737,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695966024" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1697278343" ulstyle="none" kern="1">
             <pm:latin face="Times New Roman" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -753,7 +753,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695966024" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1697278343" ulstyle="none" kern="1">
             <pm:latin face="Times New Roman" sz="240" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -769,7 +769,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695966024" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1697278343" ulstyle="none" kern="1">
             <pm:latin face="Times New Roman" sz="240" lang="default" i="1"/>
             <pm:cs face="Basic Roman" sz="280" lang="default"/>
             <pm:ea face="Basic Roman" sz="280" lang="default"/>
@@ -791,7 +791,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1695966024" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1697278343" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -813,7 +813,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1695966024"/>
+          <pm:border xmlns:pm="smNativeData" id="1697278343"/>
         </ext>
       </extLst>
     </border>
@@ -832,7 +832,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1695966024"/>
+          <pm:border xmlns:pm="smNativeData" id="1697278343"/>
         </ext>
       </extLst>
     </border>
@@ -868,7 +868,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1695966024" count="2">
+      <pm:charStyles xmlns:pm="smNativeData" id="1697278343" count="2">
         <pm:charStyle name="Normal" fontId="0"/>
         <pm:charStyle name="Hyperlink" fontId="6" base="Normal" face="1" fgClr="1" ulstyle="1" faceEA="1" faceCS="1"/>
       </pm:charStyles>
@@ -1135,7 +1135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+    <sheetView view="normal" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -1228,7 +1228,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1695966024" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1697278343" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1237,14 +1237,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1695966024" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1695966024" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1697278343" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1697278343" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1695966024" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1697278343" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1258,8 +1258,8 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -2632,7 +2632,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1695966024" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1697278343" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2641,14 +2641,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1695966024" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1695966024" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1697278343" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1697278343" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1695966024" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1697278343" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2661,9 +2661,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -3200,7 +3200,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1695966024" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1697278343" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3209,14 +3209,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1695966024" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1695966024" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1697278343" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1697278343" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1695966024" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1697278343" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
